--- a/tables/metrics_non_kin_network_villages_prediction_reciprocated_ties.xlsx
+++ b/tables/metrics_non_kin_network_villages_prediction_reciprocated_ties.xlsx
@@ -431,40 +431,40 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.5157894736842106</v>
+        <v>0.5439560439560439</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H2">
-        <v>0.6631578947368421</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I2">
-        <v>0.3368421052631579</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J2">
-        <v>0.631578947368421</v>
+        <v>0.6263736263736264</v>
       </c>
       <c r="K2">
-        <v>0.6428571428571429</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="L2">
-        <v>0.6473684210526316</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="M2">
-        <v>0.6528497409326425</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="3">
@@ -474,40 +474,40 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4523809523809524</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>0.7142857142857143</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="I3">
-        <v>0.2857142857142857</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="J3">
-        <v>0.8095238095238095</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="K3">
-        <v>0.7894736842105263</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L3">
-        <v>0.7619047619047619</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="M3">
-        <v>0.75</v>
+        <v>0.7524752475247525</v>
       </c>
     </row>
     <row r="4">
@@ -517,40 +517,40 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5476190476190477</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>0.746031746031746</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="I4">
-        <v>0.253968253968254</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="J4">
-        <v>0.6507936507936508</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="K4">
-        <v>0.6811594202898551</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L4">
-        <v>0.6984126984126984</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="M4">
-        <v>0.7121212121212122</v>
+        <v>0.6597938144329897</v>
       </c>
     </row>
     <row r="5">
@@ -560,40 +560,40 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.4659863945578231</v>
+        <v>0.4233870967741936</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
         <v>94</v>
       </c>
-      <c r="E5">
-        <v>104</v>
-      </c>
       <c r="F5">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H5">
-        <v>0.6394557823129252</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="I5">
-        <v>0.3605442176870748</v>
+        <v>0.3951612903225806</v>
       </c>
       <c r="J5">
-        <v>0.7074829931972789</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="K5">
-        <v>0.6861313868613139</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L5">
-        <v>0.673469387755102</v>
+        <v>0.6814516129032258</v>
       </c>
       <c r="M5">
-        <v>0.6619718309859155</v>
+        <v>0.6550218340611353</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +603,40 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3947368421052632</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>0.6578947368421053</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="I6">
-        <v>0.3421052631578947</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="J6">
-        <v>0.868421052631579</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L6">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="M6">
-        <v>0.7352941176470589</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
         <v>0.5</v>
@@ -655,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -670,16 +670,16 @@
         <v>0.4</v>
       </c>
       <c r="J7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M7">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8">
@@ -689,40 +689,40 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.5436893203883495</v>
+        <v>0.5197368421052632</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
       <c r="D8">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E8">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G8">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>0.7475728155339806</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="I8">
-        <v>0.2524271844660194</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="J8">
-        <v>0.6601941747572816</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="K8">
-        <v>0.6875</v>
+        <v>0.7341772151898734</v>
       </c>
       <c r="L8">
-        <v>0.7038834951456311</v>
+        <v>0.743421052631579</v>
       </c>
       <c r="M8">
-        <v>0.7162790697674418</v>
+        <v>0.7483870967741936</v>
       </c>
     </row>
     <row r="9">
@@ -732,40 +732,40 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.4552238805970149</v>
+        <v>0.4274193548387097</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>0.7014925373134329</v>
+        <v>0.6612903225806451</v>
       </c>
       <c r="I9">
-        <v>0.2985074626865671</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="J9">
-        <v>0.7910447761194029</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="K9">
-        <v>0.7704918032786885</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L9">
-        <v>0.746268656716418</v>
+        <v>0.7338709677419355</v>
       </c>
       <c r="M9">
-        <v>0.734375</v>
+        <v>0.7130434782608696</v>
       </c>
     </row>
     <row r="10">
@@ -775,40 +775,40 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.4753086419753086</v>
+        <v>0.4190140845070423</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E10">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F10">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>53</v>
       </c>
       <c r="H10">
-        <v>0.6728395061728395</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="I10">
-        <v>0.3271604938271605</v>
+        <v>0.3732394366197183</v>
       </c>
       <c r="J10">
-        <v>0.7222222222222222</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="K10">
-        <v>0.7077922077922078</v>
+        <v>0.7478991596638656</v>
       </c>
       <c r="L10">
-        <v>0.6975308641975309</v>
+        <v>0.7077464788732394</v>
       </c>
       <c r="M10">
-        <v>0.689873417721519</v>
+        <v>0.6819923371647509</v>
       </c>
     </row>
     <row r="11">
@@ -818,40 +818,40 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="I11">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="J11">
-        <v>0.6</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.65625</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12">
@@ -861,40 +861,40 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.4921875</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>0.6875</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="I12">
-        <v>0.3125</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="J12">
-        <v>0.703125</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="K12">
-        <v>0.6984126984126984</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="L12">
-        <v>0.6953125</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="M12">
-        <v>0.6929133858267716</v>
+        <v>0.7294117647058823</v>
       </c>
     </row>
     <row r="13">
@@ -904,40 +904,40 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.4905660377358491</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>0.7358490566037735</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="I13">
-        <v>0.2641509433962264</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="J13">
-        <v>0.7547169811320755</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L13">
-        <v>0.7452830188679245</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="M13">
-        <v>0.7428571428571429</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="14">
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.4722222222222222</v>
+        <v>0.4375</v>
       </c>
       <c r="C14">
         <v>0.5</v>
@@ -956,31 +956,31 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="I14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="J14">
-        <v>0.7222222222222222</v>
+        <v>0.875</v>
       </c>
       <c r="K14">
-        <v>0.7058823529411765</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L14">
-        <v>0.6944444444444444</v>
+        <v>0.8125</v>
       </c>
       <c r="M14">
-        <v>0.6857142857142857</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
@@ -990,40 +990,40 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.4907407407407408</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="C15">
         <v>0.5</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>0.6481481481481481</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="I15">
-        <v>0.3518518518518519</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="J15">
-        <v>0.6666666666666666</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="K15">
-        <v>0.660377358490566</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L15">
-        <v>0.6574074074074074</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="M15">
-        <v>0.6542056074766355</v>
+        <v>0.6744186046511628</v>
       </c>
     </row>
     <row r="16">
@@ -1033,40 +1033,40 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.459016393442623</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C16">
         <v>0.5</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H16">
-        <v>0.6557377049180327</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="I16">
-        <v>0.3442622950819672</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="J16">
-        <v>0.7377049180327869</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L16">
-        <v>0.6967213114754098</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="M16">
-        <v>0.6837606837606838</v>
+        <v>0.7160493827160493</v>
       </c>
     </row>
     <row r="17">
@@ -1076,40 +1076,40 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.4444444444444444</v>
+        <v>0.4276315789473684</v>
       </c>
       <c r="C17">
         <v>0.5</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0.4078947368421053</v>
       </c>
       <c r="J17">
-        <v>0.7111111111111111</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="K17">
-        <v>0.675</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L17">
-        <v>0.6555555555555556</v>
+        <v>0.6644736842105263</v>
       </c>
       <c r="M17">
-        <v>0.6352941176470588</v>
+        <v>0.6382978723404256</v>
       </c>
     </row>
     <row r="18">
@@ -1119,40 +1119,40 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.5172413793103449</v>
+        <v>0.475</v>
       </c>
       <c r="C18">
         <v>0.5</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>0.6551724137931034</v>
+        <v>0.55</v>
       </c>
       <c r="I18">
-        <v>0.3448275862068966</v>
+        <v>0.45</v>
       </c>
       <c r="J18">
-        <v>0.6206896551724138</v>
+        <v>0.6</v>
       </c>
       <c r="K18">
-        <v>0.6333333333333333</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L18">
-        <v>0.6379310344827587</v>
+        <v>0.575</v>
       </c>
       <c r="M18">
-        <v>0.6440677966101694</v>
+        <v>0.5641025641025641</v>
       </c>
     </row>
     <row r="19">
@@ -1162,40 +1162,40 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.7166666666666667</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C19">
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="I19">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J19">
-        <v>0.3666666666666666</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K19">
-        <v>0.5581395348837209</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>0.5833333333333334</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="M19">
-        <v>0.6575342465753424</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
   </sheetData>
